--- a/November'21/25.11.2021/Hello Daffodils Daily Sales Info.....xlsx
+++ b/November'21/25.11.2021/Hello Daffodils Daily Sales Info.....xlsx
@@ -40181,8 +40181,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40615,7 +40615,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="29">
-        <v>2056</v>
+        <v>4112</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -40627,29 +40627,31 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>2056</v>
+        <v>4112</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>2056</v>
+        <v>4112</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>56.54</v>
+        <v>113.08</v>
       </c>
       <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
+      <c r="Q11" s="26">
+        <v>28</v>
+      </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>1999.46</v>
+        <v>3970.92</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>19.532</v>
+        <v>39.064</v>
       </c>
       <c r="T11" s="27">
         <f t="shared" si="5"/>
-        <v>19.532</v>
+        <v>11.064</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -41372,7 +41374,9 @@
       <c r="C27" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="37"/>
+      <c r="D27" s="37">
+        <v>150</v>
+      </c>
       <c r="E27" s="38"/>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -41383,29 +41387,29 @@
       <c r="L27" s="31"/>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.125</v>
       </c>
       <c r="P27" s="41"/>
       <c r="Q27" s="41"/>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>145.875</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.425</v>
       </c>
       <c r="T27" s="43">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -41416,7 +41420,7 @@
       <c r="C28" s="60"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>151482</v>
+        <v>153688</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -41452,15 +41456,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>152482</v>
+        <v>154688</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>152482</v>
+        <v>154688</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>4193.2550000000001</v>
+        <v>4253.92</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -41468,19 +41472,19 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>147597.74500000002</v>
+        <v>149715.08000000002</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>1448.579</v>
+        <v>1469.5360000000001</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>757.57899999999995</v>
+        <v>750.53599999999994</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -41491,7 +41495,7 @@
       <c r="C29" s="63"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>341816</v>
+        <v>339610</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -41863,7 +41867,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>341816</v>
+        <v>339610</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
@@ -43041,7 +43045,7 @@
       <c r="C29" s="63"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>341816</v>
+        <v>339610</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -43413,7 +43417,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>341816</v>
+        <v>339610</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
@@ -44591,7 +44595,7 @@
       <c r="C29" s="63"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>341816</v>
+        <v>339610</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -44963,7 +44967,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>341816</v>
+        <v>339610</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
@@ -46141,7 +46145,7 @@
       <c r="C29" s="63"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>341816</v>
+        <v>339610</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -46513,7 +46517,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>341816</v>
+        <v>339610</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
@@ -47691,7 +47695,7 @@
       <c r="C29" s="63"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>341816</v>
+        <v>339610</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -49673,7 +49677,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>341816</v>
+        <v>339610</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
@@ -50851,7 +50855,7 @@
       <c r="C29" s="63"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>341816</v>
+        <v>339610</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -51223,7 +51227,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>341816</v>
+        <v>339610</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
@@ -52401,7 +52405,7 @@
       <c r="C29" s="63"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>341816</v>
+        <v>339610</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -52679,8 +52683,8 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53247,7 +53251,7 @@
       </c>
       <c r="D11" s="21">
         <f>'1'!D11+'2'!D11+'3'!D11+'4'!D11+'5'!D11+'6'!D11+'7'!D11+'8'!D11+'9'!D11+'10'!D11+'11'!D11+'12'!D11+'13'!D11+'14'!D11+'15'!D11+'16'!D11+'17'!D11+'18'!D11+'19'!D11+'20'!D11+'21'!D11+'22'!D11+'23'!D11+'24'!D11+'25'!D11+'26'!D11+'27'!D11+'28'!D11+'29'!D11+'30'!D11+'31'!D11</f>
-        <v>128060</v>
+        <v>130116</v>
       </c>
       <c r="E11" s="21">
         <f>'1'!E11+'2'!E11+'3'!E11+'4'!E11+'5'!E11+'6'!E11+'7'!E11+'8'!E11+'9'!E11+'10'!E11+'11'!E11+'12'!E11+'13'!E11+'14'!E11+'15'!E11+'16'!E11+'17'!E11+'18'!E11+'19'!E11+'20'!E11+'21'!E11+'22'!E11+'23'!E11+'24'!E11+'25'!E11+'26'!E11+'27'!E11+'28'!E11+'29'!E11+'30'!E11+'31'!E11</f>
@@ -53283,32 +53287,32 @@
       </c>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>132060</v>
+        <v>134116</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>158465</v>
+        <v>160521</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>3631.65</v>
+        <v>3688.19</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26">
         <f>'1'!Q11+'2'!Q11+'3'!Q11+'4'!Q11+'5'!Q11+'6'!Q11+'7'!Q11+'8'!Q11+'9'!Q11+'10'!Q11+'11'!Q11+'12'!Q11+'13'!Q11+'14'!Q11+'15'!Q11+'16'!Q11+'17'!Q11+'18'!Q11+'19'!Q11+'20'!Q11+'21'!Q11+'22'!Q11+'23'!Q11+'24'!Q11+'25'!Q11+'26'!Q11+'27'!Q11+'28'!Q11+'29'!Q11+'30'!Q11+'31'!Q11</f>
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>154504.35</v>
+        <v>156475.81</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>1254.57</v>
+        <v>1274.1019999999999</v>
       </c>
       <c r="T11" s="26">
         <f t="shared" si="5"/>
-        <v>925.56999999999994</v>
+        <v>917.10199999999986</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54463,7 +54467,7 @@
       </c>
       <c r="D27" s="21">
         <f>'1'!D27+'2'!D27+'3'!D27+'4'!D27+'5'!D27+'6'!D27+'7'!D27+'8'!D27+'9'!D27+'10'!D27+'11'!D27+'12'!D27+'13'!D27+'14'!D27+'15'!D27+'16'!D27+'17'!D27+'18'!D27+'19'!D27+'20'!D27+'21'!D27+'22'!D27+'23'!D27+'24'!D27+'25'!D27+'26'!D27+'27'!D27+'28'!D27+'29'!D27+'30'!D27+'31'!D27</f>
-        <v>164646</v>
+        <v>164796</v>
       </c>
       <c r="E27" s="21">
         <f>'1'!E27+'2'!E27+'3'!E27+'4'!E27+'5'!E27+'6'!E27+'7'!E27+'8'!E27+'9'!E27+'10'!E27+'11'!E27+'12'!E27+'13'!E27+'14'!E27+'15'!E27+'16'!E27+'17'!E27+'18'!E27+'19'!E27+'20'!E27+'21'!E27+'22'!E27+'23'!E27+'24'!E27+'25'!E27+'26'!E27+'27'!E27+'28'!E27+'29'!E27+'30'!E27+'31'!E27</f>
@@ -54499,15 +54503,15 @@
       </c>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>165146</v>
+        <v>165296</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>168977</v>
+        <v>169127</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>4541.5150000000003</v>
+        <v>4545.6400000000003</v>
       </c>
       <c r="P27" s="41"/>
       <c r="Q27" s="26">
@@ -54516,15 +54520,15 @@
       </c>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>163764.48499999999</v>
+        <v>163910.35999999999</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>1568.8869999999999</v>
+        <v>1570.3119999999999</v>
       </c>
       <c r="T27" s="41">
         <f t="shared" si="5"/>
-        <v>897.88699999999994</v>
+        <v>899.3119999999999</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -54535,7 +54539,7 @@
       <c r="C28" s="60"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>4279121</v>
+        <v>4281327</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -54571,15 +54575,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>4355211</v>
+        <v>4357417</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>4447403</v>
+        <v>4449609</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>119768.30250000001</v>
+        <v>119828.9675</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -54587,19 +54591,19 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>18874</v>
+        <v>18902</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>4308760.6974999998</v>
+        <v>4310878.0324999997</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>41374.504500000003</v>
+        <v>41395.461499999998</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>22500.504499999999</v>
+        <v>22493.461499999998</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -54610,7 +54614,7 @@
       <c r="C29" s="63"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>341816</v>
+        <v>339610</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -54706,7 +54710,7 @@
     <row r="33" spans="4:12" ht="21" x14ac:dyDescent="0.25">
       <c r="D33" s="55">
         <f>D29-(D29*3.75%)</f>
-        <v>328997.90000000002</v>
+        <v>326874.625</v>
       </c>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
